--- a/data/case1/20/Plm2_1.xlsx
+++ b/data/case1/20/Plm2_1.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.44921509251355474</v>
+        <v>-0.37427986513949918</v>
       </c>
       <c r="B1" s="0">
-        <v>0.44802836922492872</v>
+        <v>0.3734497924577056</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.25532246010890169</v>
+        <v>-0.22621075061616835</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25308265813419517</v>
+        <v>0.22444117847417289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.15686686771438474</v>
+        <v>-0.12149629596769174</v>
       </c>
       <c r="B3" s="0">
-        <v>0.15608153456864216</v>
+        <v>0.12113742226844693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14408153468294671</v>
+        <v>-0.1091374224604067</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14338795155220652</v>
+        <v>0.10884019234868347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13738795203156595</v>
+        <v>-0.10284019312983794</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13601054210421992</v>
+        <v>0.10226753337479266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035064669499638601</v>
+        <v>-0.031559878769990224</v>
       </c>
       <c r="B6" s="0">
-        <v>0.035045792189769553</v>
+        <v>0.031546856273856339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.015045792761295473</v>
+        <v>-0.011546857210262829</v>
       </c>
       <c r="B7" s="0">
-        <v>0.015001159692987542</v>
+        <v>0.011542204453757421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0049988397346503177</v>
+        <v>0.008457794609014968</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.005095024127686365</v>
+        <v>-0.0084705181510855709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.011095023635252943</v>
+        <v>0.014470517354575385</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.01120983854050106</v>
+        <v>-0.014496111830158753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.017209838049531356</v>
+        <v>0.020496111036521825</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.017231561940192819</v>
+        <v>-0.020496073887755983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0055585970306069044</v>
+        <v>0.024996073109274874</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0055582637278135394</v>
+        <v>-0.025015137187075709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.011558263237005928</v>
+        <v>0.031015136395133425</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.011574459857864206</v>
+        <v>-0.031151671759050537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.017574459368923101</v>
+        <v>0.037151670975660522</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.017588242887716099</v>
+        <v>-0.037221532646422695</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.029588242365805151</v>
+        <v>-0.027078993459297429</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.029633222431151296</v>
+        <v>0.027049185276412757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.035633221944893378</v>
+        <v>-0.021049186058668568</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.035711109883504122</v>
+        <v>0.021025770668304133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.041711109399884538</v>
+        <v>-0.015025771452821246</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.041892182426971569</v>
+        <v>0.015003776771833177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.047892181949234391</v>
+        <v>-0.0090037775593501124</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.048023850618559294</v>
+        <v>0.008999999182050189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11320829745848826</v>
+        <v>-0.13723904262895559</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11307914880348946</v>
+        <v>0.13705100414413707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02709695082858099</v>
+        <v>-0.12805100492507471</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013636719070533</v>
+        <v>0.12649792165418816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013637198075472</v>
+        <v>-0.053742647176562741</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004261710967029</v>
+        <v>0.053667717603115506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042621906025744</v>
+        <v>-0.044667718423431868</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995199843141</v>
+        <v>0.044576515953222096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.087215790905823098</v>
+        <v>-0.09394488330373818</v>
       </c>
       <c r="B22" s="0">
-        <v>0.086991183493834612</v>
+        <v>0.093633257023135741</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.077991183983718848</v>
+        <v>-0.084633257827499975</v>
       </c>
       <c r="B23" s="0">
-        <v>0.077617328655240847</v>
+        <v>0.084126382354111406</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125873408620507</v>
+        <v>-0.042126383499205389</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999313307335</v>
+        <v>0.041999998848523568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094945873096264677</v>
+        <v>-0.064707655401431197</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094700124738000824</v>
+        <v>0.064658410989352433</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088700125231383709</v>
+        <v>-0.058658411787003928</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088383179197599304</v>
+        <v>0.058599057969445312</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082383179693512165</v>
+        <v>-0.052599058769597917</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081297830797541604</v>
+        <v>0.052407208031094221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075297831303664964</v>
+        <v>-0.046407208841536374</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074545806111600221</v>
+        <v>0.046293224728741755</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062545806658638625</v>
+        <v>-0.034293225605345867</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062173034277671846</v>
+        <v>0.034253108266934618</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042173034873306925</v>
+        <v>-0.014253109225712546</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020208666000425</v>
+        <v>0.013929974548507307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027020209238044046</v>
+        <v>-0.052409719950448519</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000776449149555</v>
+        <v>0.052355339256028088</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007770558430096</v>
+        <v>-0.031355340230041051</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994780772781</v>
+        <v>0.031331791600192282</v>
       </c>
     </row>
   </sheetData>
